--- a/Config/Excel/Server/SceneConfig.xlsx
+++ b/Config/Excel/Server/SceneConfig.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="45">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -142,6 +142,20 @@
   </si>
   <si>
     <t>ServerConfig的Id</t>
+  </si>
+  <si>
+    <r>
+      <t>数据库ID，关联</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>WorldConfig.xlsx</t>
+    </r>
   </si>
   <si>
     <r>
@@ -182,12 +196,47 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>与客户端建立</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Session</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Port</t>
+    </r>
+  </si>
+  <si>
     <t>Gate</t>
   </si>
   <si>
     <t>KCP</t>
   </si>
   <si>
+    <t>网关服</t>
+  </si>
+  <si>
     <t>Addressable</t>
   </si>
   <si>
@@ -201,6 +250,9 @@
   </si>
   <si>
     <t>Realm</t>
+  </si>
+  <si>
+    <t>登录服</t>
   </si>
   <si>
     <r>
@@ -243,7 +295,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -276,12 +328,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -460,6 +506,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -497,12 +549,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,152 +830,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -972,14 +1018,20 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1305,20 +1357,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="20.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="24.1666666666667" style="5" customWidth="1"/>
-    <col min="5" max="5" width="26.5" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="8" width="22" customWidth="1"/>
-    <col min="9" max="11" width="21.1666666666667" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="18.25" customWidth="1"/>
+    <col min="6" max="6" width="35.75" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="15.375" customWidth="1"/>
+    <col min="9" max="9" width="19.125" customWidth="1"/>
+    <col min="10" max="10" width="31.625" customWidth="1"/>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1479,23 +1534,27 @@
       <c r="E6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="15.75" spans="2:11">
-      <c r="B7" s="14">
+    <row r="7" s="1" customFormat="1" ht="15.75" spans="2:12">
+      <c r="B7" s="15">
         <v>1</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="16">
         <f t="shared" ref="D7:D11" si="0">_xlfn.BITXOR(0,_xlfn.BITXOR(_xlfn.BITLSHIFT(E7,16),_xlfn.BITLSHIFT(C7,34)))</f>
         <v>17246978048</v>
       </c>
@@ -1506,30 +1565,33 @@
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J7" s="4">
         <v>20000</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="15.75" spans="2:11">
-      <c r="B8" s="14">
+      <c r="B8" s="15">
         <f>B7+1</f>
         <v>2</v>
       </c>
       <c r="C8" s="4">
         <v>2</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="16">
         <f t="shared" ref="D8:D9" si="1">_xlfn.BITXOR(0,_xlfn.BITXOR(_xlfn.BITLSHIFT(E8,16),_xlfn.BITLSHIFT(C8,34)))</f>
         <v>34493956096</v>
       </c>
@@ -1540,26 +1602,26 @@
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="15.75" spans="2:11">
-      <c r="B9" s="14">
+      <c r="B9" s="15">
         <f t="shared" ref="B9:B11" si="2">B8+1</f>
         <v>3</v>
       </c>
       <c r="C9" s="4">
         <v>4</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="16">
         <f t="shared" si="1"/>
         <v>68920803328</v>
       </c>
@@ -1570,19 +1632,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="15.75" spans="2:11">
-      <c r="B10" s="14">
+      <c r="B10" s="15">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -1590,7 +1652,7 @@
         <f>C9+1</f>
         <v>5</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="16">
         <f t="shared" si="0"/>
         <v>86167781376</v>
       </c>
@@ -1601,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" spans="2:11">
-      <c r="B11" s="14">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="2:12">
+      <c r="B11" s="15">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -1621,7 +1683,7 @@
         <f>C10+1</f>
         <v>6</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="16">
         <f t="shared" si="0"/>
         <v>103414759424</v>
       </c>
@@ -1632,19 +1694,22 @@
         <v>0</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J11" s="4">
         <v>20001</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1706,10 +1771,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="15.75" spans="1:3">
@@ -1717,10 +1782,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="15.75" spans="1:3">
@@ -1729,10 +1794,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="15.75" spans="1:3">
@@ -1741,10 +1806,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1753,10 +1818,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1787,7 +1852,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>17</v>
@@ -1809,10 +1874,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="15.75" spans="1:3">
@@ -1820,10 +1885,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="15.75" spans="1:3">
@@ -1832,10 +1897,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="15.75" spans="1:3">
@@ -1844,10 +1909,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1856,10 +1921,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Server/SceneConfig.xlsx
+++ b/Config/Excel/Server/SceneConfig.xlsx
@@ -145,6 +145,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>数据库ID，关联</t>
     </r>
     <r>
@@ -225,6 +231,15 @@
         <charset val="134"/>
       </rPr>
       <t>Port</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，没有配置代表需要通过Gate与客户端通信，这类服务器会熔断或者扩容，不得不这么干</t>
     </r>
   </si>
   <si>
@@ -975,7 +990,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1026,6 +1041,9 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1360,7 +1378,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="J23" sqref="J21:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1521,7 +1539,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="15.75" spans="2:11">
+    <row r="6" s="1" customFormat="1" ht="58.5" spans="2:11">
       <c r="B6" s="3" t="s">
         <v>28</v>
       </c>
@@ -1542,7 +1560,7 @@
       <c r="I6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="17" t="s">
         <v>34</v>
       </c>
       <c r="K6" s="2"/>
@@ -1579,7 +1597,7 @@
       <c r="K7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="18" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1708,7 +1726,7 @@
       <c r="K11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="L11" s="19" t="s">
         <v>43</v>
       </c>
     </row>

--- a/Config/Excel/Server/SceneConfig.xlsx
+++ b/Config/Excel/Server/SceneConfig.xlsx
@@ -203,6 +203,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>与客户端建立</t>
     </r>
     <r>
@@ -243,12 +249,18 @@
     </r>
   </si>
   <si>
+    <t>Realm</t>
+  </si>
+  <si>
+    <t>KCP</t>
+  </si>
+  <si>
+    <t>登录服</t>
+  </si>
+  <si>
     <t>Gate</t>
   </si>
   <si>
-    <t>KCP</t>
-  </si>
-  <si>
     <t>网关服</t>
   </si>
   <si>
@@ -262,12 +274,6 @@
   </si>
   <si>
     <t>Chat</t>
-  </si>
-  <si>
-    <t>Realm</t>
-  </si>
-  <si>
-    <t>登录服</t>
   </si>
   <si>
     <r>
@@ -1045,10 +1051,10 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1378,7 +1384,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J21:J23"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1565,7 +1571,7 @@
       </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="15.75" spans="2:12">
+    <row r="7" ht="15.75" spans="2:12">
       <c r="B7" s="15">
         <v>1</v>
       </c>
@@ -1573,14 +1579,14 @@
         <v>1</v>
       </c>
       <c r="D7" s="16">
-        <f t="shared" ref="D7:D11" si="0">_xlfn.BITXOR(0,_xlfn.BITXOR(_xlfn.BITLSHIFT(E7,16),_xlfn.BITLSHIFT(C7,34)))</f>
+        <f>_xlfn.BITXOR(0,_xlfn.BITXOR(_xlfn.BITLSHIFT(E7,16),_xlfn.BITLSHIFT(C7,34)))</f>
         <v>17246978048</v>
       </c>
       <c r="E7" s="4">
         <v>1024</v>
       </c>
       <c r="F7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>35</v>
@@ -1601,23 +1607,22 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="15.75" spans="2:11">
+    <row r="8" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B8" s="15">
-        <f>B7+1</f>
         <v>2</v>
       </c>
       <c r="C8" s="4">
         <v>2</v>
       </c>
       <c r="D8" s="16">
-        <f t="shared" ref="D8:D9" si="1">_xlfn.BITXOR(0,_xlfn.BITXOR(_xlfn.BITLSHIFT(E8,16),_xlfn.BITLSHIFT(C8,34)))</f>
+        <f>_xlfn.BITXOR(0,_xlfn.BITXOR(_xlfn.BITLSHIFT(E8,16),_xlfn.BITLSHIFT(C8,34)))</f>
         <v>34493956096</v>
       </c>
       <c r="E8" s="4">
         <v>2048</v>
       </c>
       <c r="F8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>38</v>
@@ -1625,23 +1630,29 @@
       <c r="H8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="4">
+        <v>20001</v>
+      </c>
       <c r="K8" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="L8" s="19" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="15.75" spans="2:11">
       <c r="B9" s="15">
-        <f t="shared" ref="B9:B11" si="2">B8+1</f>
         <v>3</v>
       </c>
       <c r="C9" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="16">
-        <f t="shared" si="1"/>
-        <v>68920803328</v>
+        <f>_xlfn.BITXOR(0,_xlfn.BITXOR(_xlfn.BITLSHIFT(E9,16),_xlfn.BITLSHIFT(C9,34)))</f>
+        <v>51740934144</v>
       </c>
       <c r="E9" s="4">
         <v>3072</v>
@@ -1650,10 +1661,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1663,16 +1674,15 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="15.75" spans="2:11">
       <c r="B10" s="15">
-        <f t="shared" si="2"/>
+        <f>B9+1</f>
         <v>4</v>
       </c>
       <c r="C10" s="4">
-        <f>C9+1</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="16">
-        <f t="shared" si="0"/>
-        <v>86167781376</v>
+        <f>_xlfn.BITXOR(0,_xlfn.BITXOR(_xlfn.BITLSHIFT(E10,16),_xlfn.BITLSHIFT(C10,34)))</f>
+        <v>68987912192</v>
       </c>
       <c r="E10" s="4">
         <v>4096</v>
@@ -1689,21 +1699,21 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" spans="2:12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="15.75" spans="2:11">
       <c r="B11" s="15">
-        <f t="shared" si="2"/>
+        <f>B10+1</f>
         <v>5</v>
       </c>
       <c r="C11" s="4">
         <f>C10+1</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="16">
-        <f t="shared" si="0"/>
-        <v>103414759424</v>
+        <f>_xlfn.BITXOR(0,_xlfn.BITXOR(_xlfn.BITLSHIFT(E11,16),_xlfn.BITLSHIFT(C11,34)))</f>
+        <v>86234890240</v>
       </c>
       <c r="E11" s="4">
         <v>5120</v>
@@ -1712,21 +1722,14 @@
         <v>0</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="4">
-        <v>20001</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" s="19" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1751,7 +1754,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1784,7 +1787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="15.75" spans="1:3">
+    <row r="3" spans="1:3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1808,19 +1811,17 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A5" s="4">
-        <f>A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A6" s="4">
-        <f t="shared" ref="A6:A7" si="0">A5+1</f>
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1830,16 +1831,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A7" s="4">
-        <f t="shared" si="0"/>
+        <f>A6+1</f>
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1854,7 +1855,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1887,7 +1888,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="15.75" spans="1:3">
+    <row r="3" spans="1:3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1911,19 +1912,17 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A5" s="4">
-        <f>A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A6" s="4">
-        <f t="shared" ref="A6:A7" si="0">A5+1</f>
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1933,16 +1932,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A7" s="4">
-        <f t="shared" si="0"/>
+        <f>A6+1</f>
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
